--- a/biology/Zoologie/Capromyidae/Capromyidae.xlsx
+++ b/biology/Zoologie/Capromyidae/Capromyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hutias
-Les Capromyidés (Capromyidae) sont une famille de l'ordre des rongeurs[1]. Cette famille rassemble les hutias encore vivants. Elle a été décrite pour la première fois en 1842 par le naturaliste britannique Charles Hamilton Smith (1776-1859). Le hutia le plus connu est le hutia de Cuba (Capromys pilorides), mais plusieurs autres espèces sont menacées, voire éteintes.
+Les Capromyidés (Capromyidae) sont une famille de l'ordre des rongeurs. Cette famille rassemble les hutias encore vivants. Elle a été décrite pour la première fois en 1842 par le naturaliste britannique Charles Hamilton Smith (1776-1859). Le hutia le plus connu est le hutia de Cuba (Capromys pilorides), mais plusieurs autres espèces sont menacées, voire éteintes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (8 janv. 2013)[2] et ITIS      (8 janv. 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (8 janv. 2013) et ITIS      (8 janv. 2013) :
 sous-famille Capromyinae Smith, 1842 - dont plusieurs espèces éteintes ou presque
 sous-famille † Hexolobodontinae Woods, 1989 - unique espèce, éteinte, Hexolobodon phenax 
 sous-famille † Isolobodontinae Woods, 1989 - deux espèces, éteintes
@@ -546,7 +560,9 @@
           <t>Caractéristiques morphologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les hutias sont des rongeurs de grande taille caractérisés par une tête massive au museau plus ou moins effilé, des pattes très robustes dont les doigts sont parfois réunis par une membrane et une queue de longueur variable.
 Deux espèces à queue préhensile sont d'excellents grimpeurs.
@@ -586,7 +602,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hutias sont endémiques des Caraïbes. À l'origine, ce sont des animaux forestiers, mais on les trouve dans les habitats rocheux et marécageux, dans les régions côtières, forêts tropicales et marécages, mangroves.
 Le hutia vit majoritairement en colonie dans les forêts et les marécages cubains. On trouve sur cette île dix espèces de hutias qui se nourrissent de végétaux et de lézards mais dont la population est en diminution constante. 
@@ -618,7 +636,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mode de vie : fouisseurs ou arboricoles
 Activité : certains sont diurnes; la plupart nocturne
@@ -654,11 +674,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cette famille a été décrite pour la première fois en 1842 par le naturaliste britannique Charles Hamilton Smith (1776-1859).
 Liste des sous-familles et genres :
-Selon Mammal Species of the World (version 3, 2005)  (8 janv. 2013)[2] :
+Selon Mammal Species of the World (version 3, 2005)  (8 janv. 2013) :
 sous-famille Capromyinae
 genre Capromys
 genre Geocapromys
@@ -671,7 +693,7 @@
 sous-famille Plagiodontinae
 genre Plagiodontia
 genre Rhizoplagiodontia
-Selon Catalogue of Life                                   (8 janv. 2013)[4] :
+Selon Catalogue of Life                                   (8 janv. 2013) :
 genre Capromys
 genre Geocapromys
 genre Hexolobodon
@@ -680,12 +702,12 @@
 genre Mysateles
 genre Plagiodontia
 genre Rhizoplagiodontia
-Selon NCBI  (8 janv. 2013)[5] :
+Selon NCBI  (8 janv. 2013) :
 genre Capromys
 Capromys pilorides
 genre Plagiodontia
 Plagiodontia aedium
-Selon Paleobiology Database                   (8 janv. 2013)[6] :
+Selon Paleobiology Database                   (8 janv. 2013) :
 genre Drytomomys
 sous-famille Isolobodontinae
 genre Isomyopotamus
@@ -718,9 +740,11 @@
           <t>Avenir des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces de Hutias sont menacées d'extinctions par l'action de l'homme ou des prédateurs importés par lui sur les iles des Caraïbes [7] , [8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de Hutias sont menacées d'extinctions par l'action de l'homme ou des prédateurs importés par lui sur les iles des Caraïbes  , .
 En raison de leur mode vie discret et de leur aspect peu attirant, les hutias ont été peu étudiés par les biologistes et certaines espèces n'ont pas été aperçues vivantes depuis des décennies.
 </t>
         </is>
